--- a/indicadores/Notas/Base Normativa Completa.xlsx
+++ b/indicadores/Notas/Base Normativa Completa.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GUSTAVO\UDELAR\UMAD\CONVENIO INDDHH\Mirador DESCA\CUIDADO _DESCA_APP\indicadores\Fichas tecnicas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DESCA-app\indicadores\Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Internacional" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Constitución!$A$1:$I$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Internacional!$A$1:$O$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Internacional!$A$1:$AI$180</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Leyes!$A$1:$O$198</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -5520,9 +5520,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AI180"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G178" sqref="G178"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11397,7 +11397,7 @@
     </row>
     <row r="141" spans="1:35" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141" s="73" t="s">
         <v>6</v>
@@ -11412,38 +11412,38 @@
         <v>8</v>
       </c>
       <c r="F141" s="74" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="G141" s="78" t="s">
-        <v>35</v>
+        <v>680</v>
       </c>
       <c r="H141" s="78">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I141" s="78">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="J141" s="78">
-        <v>1974</v>
+        <v>1988</v>
       </c>
       <c r="K141" s="76" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L141" s="72" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="M141" s="61" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="N141" s="78" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="O141" s="78"/>
-      <c r="U141" s="80"/>
+      <c r="U141" s="77"/>
     </row>
     <row r="142" spans="1:35" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="73" t="s">
         <v>6</v>
@@ -11458,38 +11458,38 @@
         <v>8</v>
       </c>
       <c r="F142" s="74" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G142" s="78" t="s">
-        <v>680</v>
+        <v>35</v>
       </c>
       <c r="H142" s="78">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="I142" s="78">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="J142" s="78">
-        <v>1988</v>
+        <v>1974</v>
       </c>
       <c r="K142" s="76" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L142" s="72" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="M142" s="61" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="N142" s="78" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="O142" s="78"/>
-      <c r="U142" s="77"/>
+      <c r="U142" s="80"/>
     </row>
     <row r="143" spans="1:35" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143" s="73" t="s">
         <v>6</v>
@@ -11504,38 +11504,38 @@
         <v>8</v>
       </c>
       <c r="F143" s="74" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="G143" s="73" t="s">
-        <v>684</v>
-      </c>
-      <c r="H143" s="78">
-        <v>1989</v>
-      </c>
-      <c r="I143" s="78">
-        <v>1991</v>
-      </c>
-      <c r="J143" s="78" t="s">
-        <v>665</v>
+        <v>680</v>
+      </c>
+      <c r="H143" s="73">
+        <v>1979</v>
+      </c>
+      <c r="I143" s="73">
+        <v>1983</v>
+      </c>
+      <c r="J143" s="75" t="s">
+        <v>688</v>
       </c>
       <c r="K143" s="76" t="s">
-        <v>665</v>
+        <v>732</v>
       </c>
       <c r="L143" s="72" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="M143" s="61" t="s">
-        <v>842</v>
-      </c>
-      <c r="N143" s="78" t="s">
-        <v>686</v>
+        <v>843</v>
+      </c>
+      <c r="N143" s="73" t="s">
+        <v>663</v>
       </c>
       <c r="O143" s="73"/>
-      <c r="U143" s="81"/>
+      <c r="U143" s="77"/>
     </row>
     <row r="144" spans="1:35" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B144" s="73" t="s">
         <v>6</v>
@@ -11550,28 +11550,28 @@
         <v>8</v>
       </c>
       <c r="F144" s="74" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="G144" s="73" t="s">
         <v>680</v>
       </c>
       <c r="H144" s="73">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="I144" s="73">
-        <v>1983</v>
+        <v>1994</v>
       </c>
       <c r="J144" s="75" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="K144" s="76" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="L144" s="72" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="M144" s="61" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="N144" s="73" t="s">
         <v>663</v>
@@ -11581,7 +11581,7 @@
     </row>
     <row r="145" spans="1:21" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145" s="73" t="s">
         <v>6</v>
@@ -11596,28 +11596,28 @@
         <v>8</v>
       </c>
       <c r="F145" s="74" t="s">
-        <v>26</v>
+        <v>691</v>
       </c>
       <c r="G145" s="73" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="H145" s="73">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="I145" s="73">
-        <v>1990</v>
-      </c>
-      <c r="J145" s="75">
-        <v>1990</v>
+        <v>1988</v>
+      </c>
+      <c r="J145" s="75" t="s">
+        <v>692</v>
       </c>
       <c r="K145" s="76" t="s">
-        <v>473</v>
+        <v>733</v>
       </c>
       <c r="L145" s="72" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="M145" s="61" t="s">
-        <v>508</v>
+        <v>844</v>
       </c>
       <c r="N145" s="73" t="s">
         <v>663</v>
@@ -11627,7 +11627,7 @@
     </row>
     <row r="146" spans="1:21" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146" s="73" t="s">
         <v>6</v>
@@ -11642,28 +11642,28 @@
         <v>8</v>
       </c>
       <c r="F146" s="74" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="G146" s="73" t="s">
         <v>680</v>
       </c>
       <c r="H146" s="73">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="I146" s="73">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="J146" s="75" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="K146" s="76" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L146" s="72" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="M146" s="61" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="N146" s="73" t="s">
         <v>663</v>
@@ -11673,7 +11673,7 @@
     </row>
     <row r="147" spans="1:21" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B147" s="73" t="s">
         <v>6</v>
@@ -11688,28 +11688,28 @@
         <v>8</v>
       </c>
       <c r="F147" s="74" t="s">
-        <v>694</v>
-      </c>
-      <c r="G147" s="73" t="s">
-        <v>680</v>
+        <v>25</v>
+      </c>
+      <c r="G147" s="73">
+        <v>11</v>
       </c>
       <c r="H147" s="73">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="I147" s="73">
-        <v>1989</v>
-      </c>
-      <c r="J147" s="75" t="s">
-        <v>695</v>
+        <v>1999</v>
+      </c>
+      <c r="J147" s="75">
+        <v>1994</v>
       </c>
       <c r="K147" s="76" t="s">
-        <v>734</v>
+        <v>471</v>
       </c>
       <c r="L147" s="72" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="M147" s="61" t="s">
-        <v>845</v>
+        <v>507</v>
       </c>
       <c r="N147" s="73" t="s">
         <v>663</v>
@@ -11719,7 +11719,7 @@
     </row>
     <row r="148" spans="1:21" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B148" s="73" t="s">
         <v>6</v>
@@ -11734,38 +11734,38 @@
         <v>8</v>
       </c>
       <c r="F148" s="74" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="G148" s="73" t="s">
-        <v>680</v>
-      </c>
-      <c r="H148" s="73">
+        <v>684</v>
+      </c>
+      <c r="H148" s="78">
         <v>1989</v>
       </c>
-      <c r="I148" s="73">
-        <v>1992</v>
-      </c>
-      <c r="J148" s="75" t="s">
-        <v>698</v>
+      <c r="I148" s="78">
+        <v>1991</v>
+      </c>
+      <c r="J148" s="78" t="s">
+        <v>665</v>
       </c>
       <c r="K148" s="76" t="s">
-        <v>735</v>
+        <v>665</v>
       </c>
       <c r="L148" s="72" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="M148" s="61" t="s">
-        <v>846</v>
-      </c>
-      <c r="N148" s="73" t="s">
-        <v>663</v>
+        <v>842</v>
+      </c>
+      <c r="N148" s="78" t="s">
+        <v>686</v>
       </c>
       <c r="O148" s="73"/>
-      <c r="U148" s="80"/>
+      <c r="U148" s="81"/>
     </row>
     <row r="149" spans="1:21" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B149" s="73" t="s">
         <v>6</v>
@@ -11780,28 +11780,28 @@
         <v>8</v>
       </c>
       <c r="F149" s="74" t="s">
-        <v>700</v>
+        <v>26</v>
       </c>
       <c r="G149" s="73" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="H149" s="73">
-        <v>1982</v>
+        <v>1989</v>
       </c>
       <c r="I149" s="73">
-        <v>1994</v>
-      </c>
-      <c r="J149" s="75" t="s">
-        <v>701</v>
+        <v>1990</v>
+      </c>
+      <c r="J149" s="75">
+        <v>1990</v>
       </c>
       <c r="K149" s="76" t="s">
-        <v>736</v>
+        <v>473</v>
       </c>
       <c r="L149" s="72" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="M149" s="61" t="s">
-        <v>847</v>
+        <v>508</v>
       </c>
       <c r="N149" s="73" t="s">
         <v>663</v>
@@ -11811,7 +11811,7 @@
     </row>
     <row r="150" spans="1:21" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B150" s="73" t="s">
         <v>6</v>
@@ -11826,38 +11826,38 @@
         <v>8</v>
       </c>
       <c r="F150" s="74" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="G150" s="73" t="s">
         <v>680</v>
       </c>
       <c r="H150" s="73">
+        <v>1989</v>
+      </c>
+      <c r="I150" s="73">
         <v>1992</v>
       </c>
-      <c r="I150" s="73">
-        <v>1993</v>
-      </c>
-      <c r="J150" s="75">
-        <v>1993</v>
+      <c r="J150" s="75" t="s">
+        <v>698</v>
       </c>
       <c r="K150" s="76" t="s">
-        <v>704</v>
+        <v>735</v>
       </c>
       <c r="L150" s="72" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="M150" s="61" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="N150" s="73" t="s">
         <v>663</v>
       </c>
       <c r="O150" s="73"/>
-      <c r="U150" s="82"/>
+      <c r="U150" s="80"/>
     </row>
     <row r="151" spans="1:21" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="73" t="s">
         <v>6</v>
@@ -11872,7 +11872,7 @@
         <v>8</v>
       </c>
       <c r="F151" s="74" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G151" s="73" t="s">
         <v>680</v>
@@ -11881,29 +11881,29 @@
         <v>1992</v>
       </c>
       <c r="I151" s="73">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="J151" s="75">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="K151" s="76" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="L151" s="72" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="M151" s="61" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="N151" s="73" t="s">
         <v>663</v>
       </c>
       <c r="O151" s="73"/>
-      <c r="U151" s="80"/>
+      <c r="U151" s="82"/>
     </row>
     <row r="152" spans="1:21" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="73" t="s">
         <v>6</v>
@@ -11918,28 +11918,28 @@
         <v>8</v>
       </c>
       <c r="F152" s="74" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="G152" s="73" t="s">
         <v>680</v>
       </c>
       <c r="H152" s="73">
+        <v>1992</v>
+      </c>
+      <c r="I152" s="73">
         <v>1994</v>
       </c>
-      <c r="I152" s="73">
-        <v>1996</v>
-      </c>
       <c r="J152" s="75">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="K152" s="76" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="L152" s="72" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="M152" s="61" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="N152" s="73" t="s">
         <v>663</v>
@@ -11949,7 +11949,7 @@
     </row>
     <row r="153" spans="1:21" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="73" t="s">
         <v>6</v>
@@ -11964,38 +11964,38 @@
         <v>8</v>
       </c>
       <c r="F153" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="G153" s="73">
-        <v>11</v>
+        <v>709</v>
+      </c>
+      <c r="G153" s="73" t="s">
+        <v>680</v>
       </c>
       <c r="H153" s="73">
-        <v>1988</v>
+        <v>1994</v>
       </c>
       <c r="I153" s="73">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="J153" s="75">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="K153" s="76" t="s">
-        <v>471</v>
+        <v>710</v>
       </c>
       <c r="L153" s="72" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="M153" s="61" t="s">
-        <v>507</v>
+        <v>850</v>
       </c>
       <c r="N153" s="73" t="s">
         <v>663</v>
       </c>
       <c r="O153" s="73"/>
-      <c r="U153" s="77"/>
+      <c r="U153" s="80"/>
     </row>
     <row r="154" spans="1:21" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B154" s="73" t="s">
         <v>6</v>
@@ -12010,38 +12010,38 @@
         <v>8</v>
       </c>
       <c r="F154" s="74" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="G154" s="73" t="s">
         <v>680</v>
       </c>
       <c r="H154" s="73">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I154" s="73">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="J154" s="75" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="K154" s="76" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="L154" s="72" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="M154" s="61" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="N154" s="73" t="s">
         <v>663</v>
       </c>
       <c r="O154" s="73"/>
-      <c r="U154" s="77"/>
+      <c r="U154" s="80"/>
     </row>
     <row r="155" spans="1:21" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="73" t="s">
         <v>6</v>
@@ -12056,34 +12056,34 @@
         <v>8</v>
       </c>
       <c r="F155" s="74" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G155" s="73" t="s">
         <v>680</v>
       </c>
       <c r="H155" s="73">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="I155" s="73">
-        <v>2004</v>
-      </c>
-      <c r="J155" s="73">
-        <v>2002</v>
-      </c>
-      <c r="K155" s="75" t="s">
-        <v>738</v>
+        <v>2000</v>
+      </c>
+      <c r="J155" s="75" t="s">
+        <v>714</v>
+      </c>
+      <c r="K155" s="76" t="s">
+        <v>737</v>
       </c>
       <c r="L155" s="72" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="M155" s="61" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="N155" s="73" t="s">
         <v>663</v>
       </c>
       <c r="O155" s="73"/>
-      <c r="U155" s="80"/>
+      <c r="U155" s="77"/>
     </row>
     <row r="156" spans="1:21" s="72" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
@@ -12133,7 +12133,7 @@
     </row>
     <row r="157" spans="1:21" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B157" s="73" t="s">
         <v>6</v>
@@ -12148,28 +12148,28 @@
         <v>8</v>
       </c>
       <c r="F157" s="74" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G157" s="73" t="s">
         <v>680</v>
       </c>
       <c r="H157" s="73">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="I157" s="73">
-        <v>2005</v>
-      </c>
-      <c r="J157" s="75" t="s">
-        <v>721</v>
-      </c>
-      <c r="K157" s="76" t="s">
-        <v>740</v>
+        <v>2004</v>
+      </c>
+      <c r="J157" s="73">
+        <v>2002</v>
+      </c>
+      <c r="K157" s="75" t="s">
+        <v>738</v>
       </c>
       <c r="L157" s="72" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M157" s="61" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="N157" s="73" t="s">
         <v>663</v>
@@ -13335,23 +13335,23 @@
     <hyperlink ref="F138" r:id="rId136"/>
     <hyperlink ref="F139" r:id="rId137"/>
     <hyperlink ref="F140" r:id="rId138"/>
-    <hyperlink ref="F141" r:id="rId139"/>
-    <hyperlink ref="F142" r:id="rId140"/>
-    <hyperlink ref="F143" r:id="rId141"/>
-    <hyperlink ref="F144" r:id="rId142"/>
-    <hyperlink ref="F145" r:id="rId143"/>
-    <hyperlink ref="F146" r:id="rId144"/>
-    <hyperlink ref="F147" r:id="rId145"/>
-    <hyperlink ref="F148" r:id="rId146"/>
-    <hyperlink ref="F149" r:id="rId147"/>
-    <hyperlink ref="F150" r:id="rId148"/>
-    <hyperlink ref="F151" r:id="rId149"/>
-    <hyperlink ref="F152" r:id="rId150"/>
-    <hyperlink ref="F153" r:id="rId151"/>
-    <hyperlink ref="F154" r:id="rId152"/>
-    <hyperlink ref="F155" r:id="rId153"/>
+    <hyperlink ref="F142" r:id="rId139"/>
+    <hyperlink ref="F141" r:id="rId140"/>
+    <hyperlink ref="F148" r:id="rId141"/>
+    <hyperlink ref="F143" r:id="rId142"/>
+    <hyperlink ref="F149" r:id="rId143"/>
+    <hyperlink ref="F145" r:id="rId144"/>
+    <hyperlink ref="F146" r:id="rId145"/>
+    <hyperlink ref="F150" r:id="rId146"/>
+    <hyperlink ref="F144" r:id="rId147"/>
+    <hyperlink ref="F151" r:id="rId148"/>
+    <hyperlink ref="F152" r:id="rId149"/>
+    <hyperlink ref="F153" r:id="rId150"/>
+    <hyperlink ref="F147" r:id="rId151"/>
+    <hyperlink ref="F155" r:id="rId152"/>
+    <hyperlink ref="F157" r:id="rId153"/>
     <hyperlink ref="F156" r:id="rId154"/>
-    <hyperlink ref="F157" r:id="rId155"/>
+    <hyperlink ref="F154" r:id="rId155"/>
     <hyperlink ref="F158" r:id="rId156"/>
     <hyperlink ref="F159" r:id="rId157"/>
     <hyperlink ref="F160" r:id="rId158"/>
@@ -13744,9 +13744,9 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:O198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F145" sqref="A145:XFD149"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F163" sqref="F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/indicadores/Notas/Base Normativa Completa.xlsx
+++ b/indicadores/Notas/Base Normativa Completa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Internacional" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3199" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3374" uniqueCount="1231">
   <si>
     <t>Derecho</t>
   </si>
@@ -4754,6 +4754,179 @@
 Por último, el artículo 8, se dedica a los derechos sindicales. y establece el derecho a organizar y a afiliarse a sindicatos para la protección y promoción de sus intereses. Concretamente, los Estados Partes promoverán la mayor libertad para que los sindicatos formen federaciones y confederaciones nacionales y se asocien a las ya existentes, así como a formar organizaciones sindicales internacionales y asociarse a la de su elección. Por otro lado, establece el derecho de huelga y que nadie estará obligado a pertenecer a un sindicato.
 </t>
   </si>
+  <si>
+    <t>Alimentación</t>
+  </si>
+  <si>
+    <t>Constitución de FAO</t>
+  </si>
+  <si>
+    <t>La Constitución de la FAO tuvo lugar en 1945, luego del impacto de la Segunda Guerra Mundial. En un contexto de escasez de alimentos y devastación, 44 Estados firmaron un compromiso para luchar contra el hambre. La Constitución compromete a los Estados a elevar los niveles de nutrición y vida de los pueblos bajo su respectiva jurisdicción, mejorar el rendimiento de la producción y la eficacia de la distribución de todos los alimentos y productos alimenticios y agrícolas, mejorar las condiciones de la población rural y contribuir así a la expansión de la economía mundial y a liberar del hambre a la humanidad.</t>
+  </si>
+  <si>
+    <t>34 j)</t>
+  </si>
+  <si>
+    <t>Los Estados miembros convienen en que la igualdad de oportunidades, la eliminación de la pobreza crítica y la distribución equitativa de la riqueza y del ingreso, así como la plena participación de sus pueblos en las decisiones relativas a su propio desarrollo, son, entre otros, objetivos básicos del desarrollo integral. Para lograrlos, convienen asimismo en dedicar sus máximos esfuerzos a la consecución de metas básicas que incluyen  
+Una nutrición adecuada, particularmente por medio de la aceleración de los esfuerzos nacionales para incrementar la producción y disponibilidad de alimentos (literal j).</t>
+  </si>
+  <si>
+    <t>La Declaración Universal de Derechos Humanos, aprobada por la Asamblea General de las Naciones Unidas en 1948, el derecho a la alimentación quedó reconocido formalmente como un derecho humano en el artículo 25.1: Toda persona tiene derecho a un nivel de vida adecuado que le asegure, así como a su familia, la salud y el bienestar, y en especial la alimentación, el vestido, la vivienda, la asistencia médica y los servicios sociales necesarios.</t>
+  </si>
+  <si>
+    <t>Toda persona tiene derecho a que su salud sea preservada por medidas sanitarias y sociales, relativas a la alimentación, el vestido, la vivienda y la asistencia médica, correspondientes al nivel que permitan los recursos públicos y los de la comunidad.</t>
+  </si>
+  <si>
+    <t>5e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Convención establece que los Estados partes se comprometen a prohibir y eliminar la discriminación racial en todas sus formas y a garantizar el derecho de toda persona a la igualdad ante la ley, sin distinción de raza, color y origen nacional o étnico, y señala particularmente en el goce de los derechos siguientes en el goce de los derechos económicos, sociales y culturales (artículo 5 e). </t>
+  </si>
+  <si>
+    <t>Pacto Internacional de Derechos Económicos, Sociales y Culturales </t>
+  </si>
+  <si>
+    <t>Entró en vigencia en 1976, es jurídicamente vinculante y coloca el derecho a la alimentación en forma exhaustiva. El artículo 2 obliga a adoptar las medidas necesarias, y en particular medidas legislativas, para lograr progresivamente la plena efectividad de los derechos enumerados en el Pacto. El artículo 11 del PIDESC establece que los Estados reconocen el derecho de toda persona a un nivel de vida adecuado para sí y su familia, incluso alimentación, vestido y vivienda adecuados, y a una mejora continua de las condiciones de existencia. Y señala que tomarán medidas apropiadas para asegurar la efectividad de este derecho. Los Estados reconocen el derecho fundamental de toda persona a estar protegida contra el hambre y se comprometen a adoptar, individualmente y mediante la cooperación internacional, las medidas y los programas concretos necesarios.</t>
+  </si>
+  <si>
+    <t>Preámbulo, 12</t>
+  </si>
+  <si>
+    <t>La Convención señala la preocupación de los Estados por las situaciones de pobreza en que las mujeres tienen un acceso mínimo a los derechos económicos y sociales, y menciona específicamente la alimentación, así como a la satisfacción de otras necesidades y en su artículo 12 menciona específicamente el derecho a la nutrición en el embarazo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el ámbito interamericano, el Protocolo Adicional a la Convención Americana Sobre Derechos Humanos, en Materia de Derechos Económicos, Sociales y Culturales (Protocolo de San Salvador), aprobado por la Asamblea General de la OEA en 1988 y ratificado por Ley 16519, reconoce el derecho a la alimentación en su artículo 12: 
+1. Toda persona tiene derecho a una nutrición adecuada que le asegure la posibilidad de gozar del más alto nivel de desarrollo físico, emocional e intelectual. 2. Con el objeto de hacer efectivo este derecho y a erradicar la desnutrición, los Estados partes se comprometen a perfeccionar los métodos de producción, aprovisionamiento y distribución de alimentos, para lo cual se comprometen a promover una mayor cooperación internacional en apoyo de las políticas nacionales sobre la materia. </t>
+  </si>
+  <si>
+    <t>24, 27</t>
+  </si>
+  <si>
+    <t>Los Estados Parte se comprometen a  asegurar niveles de vida adecuados y combatir la malnutrición  de niños y niñas (artículo 24 y 27).</t>
+  </si>
+  <si>
+    <t>La Convención establece que los Estados Partes reconocen el derecho de las personas con discapacidad a un nivel de vida adecuado para ellas y sus familias, que incluye alimentación, vestido y vivienda adecuados, y a la mejora continua de sus condiciones de vida, y adoptarán las medidas pertinentes para salvaguardar y promover el ejercicio de este derecho sin discriminación por motivos de discapacidad (artículo 28.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En 1996, el derecho a una alimentación adecuada y el derecho a estar protegido contra el hambre se abordaron en la Cumbre Mundial sobre la Alimentación, que instó a buscar la aplicación del derecho a la alimentación y exhortó a los Estados a ratificar el Protocolo Facultativo del Pacto Internacional de Derechos Económicos, Sociales y Culturales. En 2013 Uruguay lo firmó y se reunieron así las 10 ratificaciones necesarias para su entrada en vigor. El Protocolo Facultativo establece un mecanismo para presentar casos de violación a los derechos económicos, sociales y culturales ante el Comité DESC. </t>
+  </si>
+  <si>
+    <t>Acuerdo de Escazú</t>
+  </si>
+  <si>
+    <t>El acuerdo de Escazú aborda el acceso a la información y a la justicia en materias ambientales. Los mecanismos que garanticen los derechos a la información ambiental permiten que la población tenga una participación activa en las decisiones ambientales relacionadas con una producción sostenible de alimentos. El uso del agua, la protección de la biodiversidad y los servicios ecosistémicos asociados,  la prevención de los incendios forestales, el cuidado de los suelos afecta la producción sostenible de alimentos saludables.</t>
+  </si>
+  <si>
+    <t>Decreto 315/994</t>
+  </si>
+  <si>
+    <t>Reglamento bromatológico nacional</t>
+  </si>
+  <si>
+    <t>Alimentación saludable en los Centros de Enseñanza</t>
+  </si>
+  <si>
+    <t>Declaración de interés general. Producción familiar agropecuaria y la pesca artesanal</t>
+  </si>
+  <si>
+    <t>Decreto 369/018</t>
+  </si>
+  <si>
+    <t>Consejo Nacional Honorario Coordinador de políticas destinadas a combatir el sobrepeso y la obesidad</t>
+  </si>
+  <si>
+    <t>Decreto 272/018</t>
+  </si>
+  <si>
+    <t>Rotulado frontal</t>
+  </si>
+  <si>
+    <t>Decreto 034/021 </t>
+  </si>
+  <si>
+    <t>Rotulado de alimentos y creación de comisión interministerial, integración y funciones</t>
+  </si>
+  <si>
+    <t>Regulación de la normativa sobre donación de alimentos</t>
+  </si>
+  <si>
+    <t>Reglamento bromatológico nacional. Este reglamento compila las normas de higiene, envasado y comercialización de productos alimenticios. Es complementada esta información con las ordenanzas municipales, que son materia departamental.</t>
+  </si>
+  <si>
+    <t>Ley 18.610 La Política Nacional de Aguas establece los siguientes principios: gestión sustentable, solidaria con las generaciones futuras, de los recursos hídricos y la preservación del ciclo hidrológico que constituyen asuntos de interés general.</t>
+  </si>
+  <si>
+    <t>La Ley 19.140  Alimentación saludable en los Centros de Enseñanza” del año 2013, representa el marco legal para la promoción de intervenciones en los centros educativos, tendientes a mejorar los hábitos de niños y adolescentes en relación a la alimentación y la actividad física. Confiere al Ministerio de Salud Pública la responsabilidad de confeccionar el listado de grupos de alimentos y bebidas nutritivamente adecuados. Ordenanza ministerial 116/014.</t>
+  </si>
+  <si>
+    <t>Decreto 369/018. Crea el Consejo Nacional Honorario Coordinador de políticas destinadas a combatir el sobrepeso y la obesidad. El mismo es coordinado por el Ministerio de Salud Pública e integrado por representantes de los Ministerios del Interior, Defensa Nacional, Economía y Finanzas, Educación y Cultura, Ganadería Agricultura y Pesca, Industria, Energía y Minería, Desarrollo Social, Secretaría Nacional de Deporte, ANEP, Banco de Previsión Social, Universidad de la República, Administración de los Servicios de Salud del Estado, Instituto del Niño y Adolescente del Uruguay, Congreso de Intendentes, Intendencia de Montevideo, Comisión Honoraria para la Salud Cardiovascular y Comisión Honoraria de Lucha contra el Cáncer.</t>
+  </si>
+  <si>
+    <t>Decreto 272/018. Rotulado frontal. Establece la obligatoriedad de colocar un rótulo frontal (octógono negro con letras blancas) en los productos envasados con excesivo contenido de sodio, azúcares, grasas y/o grasas saturadas.</t>
+  </si>
+  <si>
+    <t>Decreto 034/021. Rotulado frontal de alimentos para los alimentos envasados en cuyo proceso de elaboración se haya agregado sodio, azúcares o grasas deberán contar con un rotulado en su cara frontal en forma de octógonos negros.</t>
+  </si>
+  <si>
+    <t>La Ley 19.292 declara de interés general la producción familiar agropecuaria y la pesca artesanal, y establece también un mecanismo de reserva de mercado estatal de bienes y servicios alimenticios.</t>
+  </si>
+  <si>
+    <t>La Ley 20.177. Regulación de la normativa sobre donación de alimentos. Regula las donaciones de alimentos por parte del sector público y privado.</t>
+  </si>
+  <si>
+    <t>[Enlace](https://www.impo.com.uy/bases/decretos-reglamento/315-1994)</t>
+  </si>
+  <si>
+    <t>[Enlace](https://www.impo.com.uy/bases/leyes/19140-2013)</t>
+  </si>
+  <si>
+    <t>[Enlace](https://www.impo.com.uy/bases/leyes/19292-2014)</t>
+  </si>
+  <si>
+    <t>[Enlace](https://www.impo.com.uy/bases/decretos/369-2018)</t>
+  </si>
+  <si>
+    <t>[Enlace](https://www.impo.com.uy/bases/decretos/272-2018/1)</t>
+  </si>
+  <si>
+    <t>[Enlace](https://www.impo.com.uy/bases/decretos/34-2021)</t>
+  </si>
+  <si>
+    <t>[Enlace](https://www.impo.com.uy/bases/leyes/20177-2023)</t>
+  </si>
+  <si>
+    <t>[Enlace](https://www.ohchr.org/sites/default/files/UDHR/Documents/UDHR_Translations/spn.pdf)</t>
+  </si>
+  <si>
+    <t>[Enlace](https://www.oas.org/es/cidh/mandato/Basicos/declaracion.asp)</t>
+  </si>
+  <si>
+    <t>[Enlace](https://www.ohchr.org/sites/default/files/Documents/ProfessionalInterest/cescr_SP.pdf)</t>
+  </si>
+  <si>
+    <t>[Enlace](https://www.ohchr.org/sites/default/files/Documents/ProfessionalInterest/cedaw_SP.pdf)</t>
+  </si>
+  <si>
+    <t>[Enlace](https://www.impo.com.uy/bases/leyes-internacional/19773-2019/1)</t>
+  </si>
+  <si>
+    <t>[Enlace](https://www.fao.org/3/mp046s/mp046s.pdf)</t>
+  </si>
+  <si>
+    <t>11.367</t>
+  </si>
+  <si>
+    <t>18.610</t>
+  </si>
+  <si>
+    <t>19.140</t>
+  </si>
+  <si>
+    <t>19.292</t>
+  </si>
+  <si>
+    <t>20.177</t>
+  </si>
 </sst>
 </file>
 
@@ -4963,7 +5136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5232,6 +5405,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -5515,33 +5691,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" filterMode="1"/>
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AI203"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D181" sqref="D181"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D181" sqref="D181"/>
+      <selection pane="bottomLeft" activeCell="L195" sqref="L195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="15" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="53.28515625" style="57" customWidth="1"/>
-    <col min="7" max="7" width="34.5703125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="255.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="116.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="10"/>
+    <col min="4" max="4" width="25.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="53.33203125" style="57" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="255.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="150.44140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="116.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="74.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>399</v>
       </c>
@@ -5585,7 +5764,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5626,7 +5805,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5668,7 +5847,7 @@
       </c>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5710,7 +5889,7 @@
       </c>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5751,7 +5930,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5793,7 +5972,7 @@
       </c>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5835,7 +6014,7 @@
       </c>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5877,7 +6056,7 @@
       </c>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5919,7 +6098,7 @@
       </c>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5960,7 +6139,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -6002,7 +6181,7 @@
       </c>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -6044,7 +6223,7 @@
       </c>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -6086,7 +6265,7 @@
       </c>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -6128,7 +6307,7 @@
       </c>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -6170,7 +6349,7 @@
       </c>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -6212,7 +6391,7 @@
       </c>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -6254,7 +6433,7 @@
       </c>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -6296,7 +6475,7 @@
       </c>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -6338,7 +6517,7 @@
       </c>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -6380,7 +6559,7 @@
       </c>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -6422,7 +6601,7 @@
       </c>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -6464,7 +6643,7 @@
       </c>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -6506,7 +6685,7 @@
       </c>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -6547,7 +6726,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -6589,7 +6768,7 @@
       </c>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -6631,7 +6810,7 @@
       </c>
       <c r="N26" s="10"/>
     </row>
-    <row r="27" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -6672,7 +6851,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -6713,7 +6892,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -6755,7 +6934,7 @@
       </c>
       <c r="N29" s="10"/>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -6797,7 +6976,7 @@
       </c>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -6839,7 +7018,7 @@
       </c>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -6881,7 +7060,7 @@
       </c>
       <c r="N32" s="10"/>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -6923,7 +7102,7 @@
       </c>
       <c r="N33" s="10"/>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -6965,7 +7144,7 @@
       </c>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -7007,7 +7186,7 @@
       </c>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -7049,7 +7228,7 @@
       </c>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -7090,7 +7269,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -7132,7 +7311,7 @@
       </c>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -7174,7 +7353,7 @@
       </c>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -7216,7 +7395,7 @@
       </c>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -7257,7 +7436,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -7299,7 +7478,7 @@
       </c>
       <c r="N42" s="10"/>
     </row>
-    <row r="43" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -7340,7 +7519,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -7382,7 +7561,7 @@
       </c>
       <c r="N44" s="10"/>
     </row>
-    <row r="45" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -7423,7 +7602,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -7464,7 +7643,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -7505,7 +7684,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -7547,7 +7726,7 @@
       </c>
       <c r="N48" s="10"/>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -7589,7 +7768,7 @@
       </c>
       <c r="N49" s="10"/>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -7631,7 +7810,7 @@
       </c>
       <c r="N50" s="10"/>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -7673,7 +7852,7 @@
       </c>
       <c r="N51" s="10"/>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -7715,7 +7894,7 @@
       </c>
       <c r="N52" s="10"/>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -7757,7 +7936,7 @@
       </c>
       <c r="N53" s="10"/>
     </row>
-    <row r="54" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -7798,7 +7977,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -7840,7 +8019,7 @@
       </c>
       <c r="N55" s="10"/>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -7882,7 +8061,7 @@
       </c>
       <c r="N56" s="10"/>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -7924,7 +8103,7 @@
       </c>
       <c r="N57" s="10"/>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -7966,7 +8145,7 @@
       </c>
       <c r="N58" s="10"/>
     </row>
-    <row r="59" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -8007,7 +8186,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -8048,7 +8227,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -8089,7 +8268,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -8131,7 +8310,7 @@
       </c>
       <c r="N62" s="10"/>
     </row>
-    <row r="63" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -8172,7 +8351,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -8213,7 +8392,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -8255,7 +8434,7 @@
       </c>
       <c r="N65" s="10"/>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -8297,7 +8476,7 @@
       </c>
       <c r="N66" s="10"/>
     </row>
-    <row r="67" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -8338,7 +8517,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -8379,7 +8558,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -8421,7 +8600,7 @@
       </c>
       <c r="N69" s="10"/>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -8463,7 +8642,7 @@
       </c>
       <c r="N70" s="10"/>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -8505,7 +8684,7 @@
       </c>
       <c r="N71" s="10"/>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -8547,7 +8726,7 @@
       </c>
       <c r="N72" s="10"/>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -8589,7 +8768,7 @@
       </c>
       <c r="N73" s="10"/>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -8631,7 +8810,7 @@
       </c>
       <c r="N74" s="10"/>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -8673,7 +8852,7 @@
       </c>
       <c r="N75" s="10"/>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -8715,7 +8894,7 @@
       </c>
       <c r="N76" s="10"/>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -8756,7 +8935,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -8797,7 +8976,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -8838,7 +9017,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -8879,7 +9058,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -8920,7 +9099,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -8961,7 +9140,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -9002,7 +9181,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -9043,7 +9222,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -9084,7 +9263,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -9125,7 +9304,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -9166,7 +9345,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -9207,7 +9386,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -9248,7 +9427,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -9289,7 +9468,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -9330,7 +9509,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -9374,7 +9553,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -9418,7 +9597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -9462,7 +9641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -9506,7 +9685,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -9550,7 +9729,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -9594,7 +9773,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -9638,7 +9817,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -9682,7 +9861,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -9726,7 +9905,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -9770,7 +9949,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -9814,7 +9993,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -9858,7 +10037,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -9902,7 +10081,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -9946,7 +10125,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -9990,7 +10169,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -10034,7 +10213,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -10078,7 +10257,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -10122,7 +10301,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -10166,7 +10345,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -10210,7 +10389,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -10254,7 +10433,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -10298,7 +10477,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -10342,7 +10521,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>115</v>
       </c>
@@ -10383,7 +10562,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>116</v>
       </c>
@@ -10424,7 +10603,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>117</v>
       </c>
@@ -10465,7 +10644,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>118</v>
       </c>
@@ -10506,7 +10685,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>119</v>
       </c>
@@ -10547,7 +10726,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>120</v>
       </c>
@@ -10588,7 +10767,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>121</v>
       </c>
@@ -10629,7 +10808,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>122</v>
       </c>
@@ -10670,7 +10849,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>123</v>
       </c>
@@ -10711,7 +10890,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>124</v>
       </c>
@@ -10752,7 +10931,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>125</v>
       </c>
@@ -10793,7 +10972,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>126</v>
       </c>
@@ -10834,7 +11013,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>127</v>
       </c>
@@ -10875,7 +11054,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>128</v>
       </c>
@@ -10916,7 +11095,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="129" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>129</v>
       </c>
@@ -10957,7 +11136,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="130" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>130</v>
       </c>
@@ -10998,7 +11177,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="131" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>131</v>
       </c>
@@ -11039,7 +11218,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="132" spans="1:35" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>132</v>
       </c>
@@ -11085,7 +11264,7 @@
       <c r="O132" s="59"/>
       <c r="U132" s="63"/>
     </row>
-    <row r="133" spans="1:35" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>133</v>
       </c>
@@ -11131,7 +11310,7 @@
       <c r="O133" s="59"/>
       <c r="U133" s="60"/>
     </row>
-    <row r="134" spans="1:35" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>134</v>
       </c>
@@ -11177,7 +11356,7 @@
       <c r="O134" s="59"/>
       <c r="U134" s="60"/>
     </row>
-    <row r="135" spans="1:35" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>135</v>
       </c>
@@ -11223,7 +11402,7 @@
       <c r="O135" s="59"/>
       <c r="U135" s="63"/>
     </row>
-    <row r="136" spans="1:35" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>136</v>
       </c>
@@ -11269,7 +11448,7 @@
       <c r="O136" s="59"/>
       <c r="U136" s="63"/>
     </row>
-    <row r="137" spans="1:35" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>137</v>
       </c>
@@ -11315,7 +11494,7 @@
       <c r="O137" s="59"/>
       <c r="U137" s="63"/>
     </row>
-    <row r="138" spans="1:35" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>138</v>
       </c>
@@ -11361,7 +11540,7 @@
       <c r="O138" s="59"/>
       <c r="U138" s="63"/>
     </row>
-    <row r="139" spans="1:35" s="58" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:35" s="58" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>139</v>
       </c>
@@ -11421,7 +11600,7 @@
       <c r="AH139" s="64"/>
       <c r="AI139" s="64"/>
     </row>
-    <row r="140" spans="1:35" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>141</v>
       </c>
@@ -11467,7 +11646,7 @@
       <c r="O140" s="64"/>
       <c r="U140" s="63"/>
     </row>
-    <row r="141" spans="1:35" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -11513,7 +11692,7 @@
       <c r="O141" s="64"/>
       <c r="U141" s="66"/>
     </row>
-    <row r="142" spans="1:35" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>143</v>
       </c>
@@ -11559,7 +11738,7 @@
       <c r="O142" s="59"/>
       <c r="U142" s="63"/>
     </row>
-    <row r="143" spans="1:35" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>148</v>
       </c>
@@ -11605,7 +11784,7 @@
       <c r="O143" s="59"/>
       <c r="U143" s="63"/>
     </row>
-    <row r="144" spans="1:35" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>145</v>
       </c>
@@ -11651,7 +11830,7 @@
       <c r="O144" s="59"/>
       <c r="U144" s="63"/>
     </row>
-    <row r="145" spans="1:21" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:21" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>146</v>
       </c>
@@ -11697,7 +11876,7 @@
       <c r="O145" s="59"/>
       <c r="U145" s="63"/>
     </row>
-    <row r="146" spans="1:21" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:21" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>152</v>
       </c>
@@ -11743,7 +11922,7 @@
       <c r="O146" s="59"/>
       <c r="U146" s="63"/>
     </row>
-    <row r="147" spans="1:21" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:21" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>142</v>
       </c>
@@ -11789,7 +11968,7 @@
       <c r="O147" s="59"/>
       <c r="U147" s="67"/>
     </row>
-    <row r="148" spans="1:21" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:21" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>144</v>
       </c>
@@ -11835,7 +12014,7 @@
       <c r="O148" s="59"/>
       <c r="U148" s="63"/>
     </row>
-    <row r="149" spans="1:21" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:21" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>147</v>
       </c>
@@ -11881,7 +12060,7 @@
       <c r="O149" s="59"/>
       <c r="U149" s="66"/>
     </row>
-    <row r="150" spans="1:21" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -11927,7 +12106,7 @@
       <c r="O150" s="59"/>
       <c r="U150" s="68"/>
     </row>
-    <row r="151" spans="1:21" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -11973,7 +12152,7 @@
       <c r="O151" s="59"/>
       <c r="U151" s="66"/>
     </row>
-    <row r="152" spans="1:21" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -12019,7 +12198,7 @@
       <c r="O152" s="59"/>
       <c r="U152" s="66"/>
     </row>
-    <row r="153" spans="1:21" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>156</v>
       </c>
@@ -12065,7 +12244,7 @@
       <c r="O153" s="59"/>
       <c r="U153" s="66"/>
     </row>
-    <row r="154" spans="1:21" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -12111,7 +12290,7 @@
       <c r="O154" s="59"/>
       <c r="U154" s="63"/>
     </row>
-    <row r="155" spans="1:21" s="58" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>155</v>
       </c>
@@ -12157,7 +12336,7 @@
       <c r="O155" s="59"/>
       <c r="U155" s="66"/>
     </row>
-    <row r="156" spans="1:21" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>154</v>
       </c>
@@ -12203,7 +12382,7 @@
       <c r="O156" s="59"/>
       <c r="U156" s="66"/>
     </row>
-    <row r="157" spans="1:21" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>157</v>
       </c>
@@ -12249,7 +12428,7 @@
       <c r="O157" s="59"/>
       <c r="U157" s="63"/>
     </row>
-    <row r="158" spans="1:21" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>158</v>
       </c>
@@ -12295,7 +12474,7 @@
       <c r="O158" s="59"/>
       <c r="U158" s="66"/>
     </row>
-    <row r="159" spans="1:21" s="58" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>159</v>
       </c>
@@ -12341,7 +12520,7 @@
       <c r="O159" s="59"/>
       <c r="U159" s="66"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>160</v>
       </c>
@@ -12385,7 +12564,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>161</v>
       </c>
@@ -12429,7 +12608,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>162</v>
       </c>
@@ -12473,7 +12652,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>163</v>
       </c>
@@ -12517,7 +12696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>164</v>
       </c>
@@ -12561,7 +12740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>165</v>
       </c>
@@ -12605,7 +12784,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>166</v>
       </c>
@@ -12649,7 +12828,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>167</v>
       </c>
@@ -12693,7 +12872,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>168</v>
       </c>
@@ -12737,7 +12916,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>169</v>
       </c>
@@ -12781,7 +12960,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>170</v>
       </c>
@@ -12825,7 +13004,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>171</v>
       </c>
@@ -12869,7 +13048,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>172</v>
       </c>
@@ -12913,7 +13092,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>173</v>
       </c>
@@ -12957,7 +13136,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>174</v>
       </c>
@@ -13001,7 +13180,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>175</v>
       </c>
@@ -13045,7 +13224,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>176</v>
       </c>
@@ -13089,7 +13268,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>177</v>
       </c>
@@ -13133,7 +13312,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>178</v>
       </c>
@@ -13177,7 +13356,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>179</v>
       </c>
@@ -13221,22 +13400,551 @@
         <v>593</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="3">
-        <v>114</v>
-      </c>
-      <c r="C203" s="59" t="s">
-        <v>35</v>
-      </c>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A180" s="3">
+        <v>180</v>
+      </c>
+      <c r="B180" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" s="72" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D180" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E180" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F180" s="81" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G180" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="H180" s="72">
+        <v>1945</v>
+      </c>
+      <c r="I180" s="72">
+        <v>1949</v>
+      </c>
+      <c r="J180" s="72">
+        <v>1949</v>
+      </c>
+      <c r="K180" s="79" t="s">
+        <v>1226</v>
+      </c>
+      <c r="L180" s="37" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M180" s="10" t="s">
+        <v>1225</v>
+      </c>
+      <c r="N180" s="69" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A181" s="3">
+        <v>181</v>
+      </c>
+      <c r="B181" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" s="72" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D181" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E181" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F181" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G181" s="72" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H181" s="72">
+        <v>1948</v>
+      </c>
+      <c r="I181" s="72">
+        <v>1951</v>
+      </c>
+      <c r="J181" s="72">
+        <v>1955</v>
+      </c>
+      <c r="K181" s="79" t="s">
+        <v>400</v>
+      </c>
+      <c r="L181" s="37" t="s">
+        <v>1178</v>
+      </c>
+      <c r="M181" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="N181" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="O181" s="81"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A182" s="3">
+        <v>182</v>
+      </c>
+      <c r="B182" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" s="72" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D182" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E182" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F182" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G182" s="72">
+        <v>25</v>
+      </c>
+      <c r="H182" s="72">
+        <v>1948</v>
+      </c>
+      <c r="I182" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="J182" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="K182" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="L182" s="37" t="s">
+        <v>1179</v>
+      </c>
+      <c r="M182" s="10" t="s">
+        <v>1220</v>
+      </c>
+      <c r="N182" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O182" s="81"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A183" s="3">
+        <v>183</v>
+      </c>
+      <c r="B183" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" s="72" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D183" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E183" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F183" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G183" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="H183" s="72">
+        <v>1948</v>
+      </c>
+      <c r="I183" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="J183" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="K183" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="L183" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="M183" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="N183" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O183" s="81"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A184" s="3">
+        <v>184</v>
+      </c>
+      <c r="B184" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="72" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D184" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E184" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F184" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G184" s="72" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H184" s="72">
+        <v>1965</v>
+      </c>
+      <c r="I184" s="72">
+        <v>1969</v>
+      </c>
+      <c r="J184" s="72">
+        <v>1968</v>
+      </c>
+      <c r="K184" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="L184" s="37" t="s">
+        <v>1182</v>
+      </c>
+      <c r="M184" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="N184" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="O184" s="81"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A185" s="3">
+        <v>185</v>
+      </c>
+      <c r="B185" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" s="72" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D185" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E185" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F185" s="81" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G185" s="72">
+        <v>11</v>
+      </c>
+      <c r="H185" s="72">
+        <v>1966</v>
+      </c>
+      <c r="I185" s="72">
+        <v>1976</v>
+      </c>
+      <c r="J185" s="72">
+        <v>1969</v>
+      </c>
+      <c r="K185" s="79" t="s">
+        <v>403</v>
+      </c>
+      <c r="L185" s="37" t="s">
+        <v>1184</v>
+      </c>
+      <c r="M185" s="10" t="s">
+        <v>1222</v>
+      </c>
+      <c r="N185" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="O185" s="81"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A186" s="3">
+        <v>186</v>
+      </c>
+      <c r="B186" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" s="72" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D186" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E186" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F186" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G186" s="72" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H186" s="72">
+        <v>1979</v>
+      </c>
+      <c r="I186" s="72">
+        <v>1981</v>
+      </c>
+      <c r="J186" s="72">
+        <v>1981</v>
+      </c>
+      <c r="K186" s="79" t="s">
+        <v>405</v>
+      </c>
+      <c r="L186" s="37" t="s">
+        <v>1186</v>
+      </c>
+      <c r="M186" s="10" t="s">
+        <v>1223</v>
+      </c>
+      <c r="N186" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="O186" s="81"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A187" s="3">
+        <v>187</v>
+      </c>
+      <c r="B187" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" s="72" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D187" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E187" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F187" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="G187" s="72">
+        <v>10</v>
+      </c>
+      <c r="H187" s="72">
+        <v>1988</v>
+      </c>
+      <c r="I187" s="72">
+        <v>1999</v>
+      </c>
+      <c r="J187" s="72">
+        <v>1994</v>
+      </c>
+      <c r="K187" s="79" t="s">
+        <v>407</v>
+      </c>
+      <c r="L187" s="37" t="s">
+        <v>1187</v>
+      </c>
+      <c r="M187" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="N187" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="O187" s="81"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A188" s="3">
+        <v>188</v>
+      </c>
+      <c r="B188" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" s="72" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D188" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E188" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F188" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="G188" s="72" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H188" s="72">
+        <v>1989</v>
+      </c>
+      <c r="I188" s="72">
+        <v>1990</v>
+      </c>
+      <c r="J188" s="72">
+        <v>1990</v>
+      </c>
+      <c r="K188" s="79" t="s">
+        <v>409</v>
+      </c>
+      <c r="L188" s="37" t="s">
+        <v>1189</v>
+      </c>
+      <c r="M188" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="N188" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="O188" s="81"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A189" s="3">
+        <v>189</v>
+      </c>
+      <c r="B189" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" s="72" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D189" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E189" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F189" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G189" s="72">
+        <v>28</v>
+      </c>
+      <c r="H189" s="72">
+        <v>2006</v>
+      </c>
+      <c r="I189" s="72">
+        <v>2008</v>
+      </c>
+      <c r="J189" s="72">
+        <v>2008</v>
+      </c>
+      <c r="K189" s="79" t="s">
+        <v>412</v>
+      </c>
+      <c r="L189" s="37" t="s">
+        <v>1190</v>
+      </c>
+      <c r="M189" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="N189" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="O189" s="81"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A190" s="3">
+        <v>190</v>
+      </c>
+      <c r="B190" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" s="72" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D190" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E190" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F190" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="G190" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="H190" s="72">
+        <v>2008</v>
+      </c>
+      <c r="I190" s="72">
+        <v>2013</v>
+      </c>
+      <c r="J190" s="72">
+        <v>2012</v>
+      </c>
+      <c r="K190" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="L190" s="37" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M190" s="10" t="s">
+        <v>911</v>
+      </c>
+      <c r="N190" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="O190" s="81"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A191" s="3">
+        <v>191</v>
+      </c>
+      <c r="B191" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" s="72" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D191" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E191" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F191" s="81" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G191" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="H191" s="72">
+        <v>2018</v>
+      </c>
+      <c r="I191" s="72">
+        <v>2019</v>
+      </c>
+      <c r="J191" s="72">
+        <v>2019</v>
+      </c>
+      <c r="K191" s="79" t="s">
+        <v>673</v>
+      </c>
+      <c r="L191" s="37" t="s">
+        <v>1193</v>
+      </c>
+      <c r="M191" s="10" t="s">
+        <v>1224</v>
+      </c>
+      <c r="N191" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="O191" s="81"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="3"/>
+      <c r="C203" s="59"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI179">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Trabajo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AI179"/>
   <hyperlinks>
     <hyperlink ref="F62" r:id="rId1" display="http://www.ohchr.org/EN/UDHR/Documents/UDHR_Translations/spn.pdf"/>
     <hyperlink ref="F65" r:id="rId2" display="https://www.ohchr.org/Documents/ProfessionalInterest/cerd_SP.pdf"/>
@@ -13417,9 +14125,21 @@
     <hyperlink ref="F111" r:id="rId177"/>
     <hyperlink ref="F113" r:id="rId178"/>
     <hyperlink ref="F114" r:id="rId179"/>
+    <hyperlink ref="F180" r:id="rId180" display="https://www.fao.org/3/mp046s/mp046s.pdf"/>
+    <hyperlink ref="F181" r:id="rId181" display="http://www.oas.org/es/sla/ddi/tratados_multilaterales_interamericanos_A-41_carta_OEA.asp"/>
+    <hyperlink ref="F182" r:id="rId182" display="https://www.ohchr.org/sites/default/files/UDHR/Documents/UDHR_Translations/spn.pdf"/>
+    <hyperlink ref="F183" r:id="rId183" display="https://www.oas.org/es/cidh/mandato/Basicos/declaracion.asp"/>
+    <hyperlink ref="F184" r:id="rId184" display="https://www.ohchr.org/Documents/ProfessionalInterest/cerd_SP.pdf"/>
+    <hyperlink ref="F185" r:id="rId185" display="https://www.ohchr.org/sites/default/files/Documents/ProfessionalInterest/cescr_SP.pdf"/>
+    <hyperlink ref="F186" r:id="rId186" display="https://www.ohchr.org/sites/default/files/Documents/ProfessionalInterest/cedaw_SP.pdf"/>
+    <hyperlink ref="F187" r:id="rId187" display="http://www.oas.org/es/sadye/inclusion-social/protocolo-ssv/docs/protocolo-san-salvador-es.pdf"/>
+    <hyperlink ref="F188" r:id="rId188" display="https://www.un.org/es/events/childrenday/pdf/derechos.pdf"/>
+    <hyperlink ref="F189" r:id="rId189" display="https://www.un.org/esa/socdev/enable/documents/tccconvs.pdf"/>
+    <hyperlink ref="F190" r:id="rId190" display="https://www.ohchr.org/es/instruments-mechanisms/instruments/optional-protocol-international-covenant-economic-social-and"/>
+    <hyperlink ref="F191" r:id="rId191" display="https://www.impo.com.uy/bases/leyes-internacional/19773-2019/1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId180"/>
+  <pageSetup orientation="portrait" r:id="rId192"/>
 </worksheet>
 </file>
 
@@ -13430,23 +14150,24 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="D181" sqref="D181"/>
+      <selection pane="bottomLeft" activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="12"/>
-    <col min="3" max="3" width="15.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.140625" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="2.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="12"/>
+    <col min="3" max="3" width="15.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.109375" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
         <v>399</v>
       </c>
@@ -13475,7 +14196,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -13504,7 +14225,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -13533,7 +14254,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -13562,7 +14283,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -13591,7 +14312,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -13620,7 +14341,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -13649,7 +14370,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -13678,7 +14399,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -13707,7 +14428,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -13736,7 +14457,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
@@ -13764,7 +14485,7 @@
       <c r="Y11" s="58"/>
       <c r="Z11" s="58"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" s="77"/>
     </row>
   </sheetData>
@@ -13782,28 +14503,29 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:XFB201"/>
+  <dimension ref="A1:XFB209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B206" sqref="B206"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D181" sqref="D181"/>
+      <selection pane="bottomLeft" activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="75" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="81.5703125" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="43"/>
+    <col min="1" max="1" width="4.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="28.21875" style="75" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="57.109375" style="45" customWidth="1"/>
+    <col min="9" max="9" width="81.5546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>399</v>
       </c>
@@ -13832,7 +14554,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -13861,7 +14583,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -13890,7 +14612,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -13919,7 +14641,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -13948,7 +14670,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -13977,7 +14699,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -14006,7 +14728,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -14035,7 +14757,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -14064,7 +14786,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -14093,7 +14815,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -14122,7 +14844,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -14149,7 +14871,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -14178,7 +14900,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -14205,7 +14927,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -14234,7 +14956,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -14263,7 +14985,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -14292,7 +15014,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -14321,7 +15043,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -14350,7 +15072,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -14379,7 +15101,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -14408,7 +15130,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -14437,7 +15159,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -14466,7 +15188,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -14495,7 +15217,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -14524,7 +15246,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -14553,7 +15275,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -14582,7 +15304,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -14611,7 +15333,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -14640,7 +15362,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -14669,7 +15391,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -14698,7 +15420,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -14727,7 +15449,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -14756,7 +15478,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -14785,7 +15507,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -14814,7 +15536,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -14843,7 +15565,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -14872,7 +15594,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -14901,7 +15623,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -14930,7 +15652,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>39</v>
       </c>
@@ -14959,7 +15681,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>40</v>
       </c>
@@ -14988,7 +15710,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>41</v>
       </c>
@@ -15017,7 +15739,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>42</v>
       </c>
@@ -15046,7 +15768,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>43</v>
       </c>
@@ -15075,7 +15797,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>44</v>
       </c>
@@ -15104,7 +15826,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>45</v>
       </c>
@@ -15133,7 +15855,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>46</v>
       </c>
@@ -15162,7 +15884,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>47</v>
       </c>
@@ -15191,7 +15913,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>48</v>
       </c>
@@ -15220,7 +15942,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>49</v>
       </c>
@@ -15249,7 +15971,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>50</v>
       </c>
@@ -15278,7 +16000,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>51</v>
       </c>
@@ -15307,7 +16029,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>52</v>
       </c>
@@ -15336,7 +16058,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>53</v>
       </c>
@@ -15365,7 +16087,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>54</v>
       </c>
@@ -15394,7 +16116,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>55</v>
       </c>
@@ -15423,7 +16145,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>56</v>
       </c>
@@ -15452,7 +16174,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>57</v>
       </c>
@@ -15481,7 +16203,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>58</v>
       </c>
@@ -15510,7 +16232,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>59</v>
       </c>
@@ -15539,7 +16261,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>60</v>
       </c>
@@ -15568,7 +16290,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>61</v>
       </c>
@@ -15597,7 +16319,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>62</v>
       </c>
@@ -15626,7 +16348,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>63</v>
       </c>
@@ -15655,7 +16377,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>64</v>
       </c>
@@ -15684,7 +16406,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>65</v>
       </c>
@@ -15713,7 +16435,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>66</v>
       </c>
@@ -15742,7 +16464,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>67</v>
       </c>
@@ -15771,7 +16493,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>68</v>
       </c>
@@ -15800,7 +16522,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>69</v>
       </c>
@@ -15829,7 +16551,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>70</v>
       </c>
@@ -15858,7 +16580,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>71</v>
       </c>
@@ -15887,7 +16609,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <v>72</v>
       </c>
@@ -15916,7 +16638,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>73</v>
       </c>
@@ -15945,7 +16667,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>74</v>
       </c>
@@ -15974,7 +16696,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>75</v>
       </c>
@@ -16003,7 +16725,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>76</v>
       </c>
@@ -16032,7 +16754,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <v>77</v>
       </c>
@@ -16061,7 +16783,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>78</v>
       </c>
@@ -16090,7 +16812,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>79</v>
       </c>
@@ -16119,7 +16841,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>80</v>
       </c>
@@ -16148,7 +16870,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>81</v>
       </c>
@@ -16177,7 +16899,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>82</v>
       </c>
@@ -16206,7 +16928,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>83</v>
       </c>
@@ -16235,7 +16957,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>84</v>
       </c>
@@ -16264,7 +16986,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>85</v>
       </c>
@@ -16293,7 +17015,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>86</v>
       </c>
@@ -16322,7 +17044,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
         <v>87</v>
       </c>
@@ -16351,7 +17073,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>88</v>
       </c>
@@ -16380,7 +17102,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
         <v>89</v>
       </c>
@@ -16409,7 +17131,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
         <v>90</v>
       </c>
@@ -16438,7 +17160,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>91</v>
       </c>
@@ -16467,7 +17189,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>92</v>
       </c>
@@ -16496,7 +17218,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="9">
         <v>93</v>
       </c>
@@ -16525,7 +17247,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
         <v>94</v>
       </c>
@@ -16554,7 +17276,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
         <v>95</v>
       </c>
@@ -16583,7 +17305,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="97" spans="1:9 16382:16382" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9 16382:16382" x14ac:dyDescent="0.3">
       <c r="A97" s="9">
         <v>96</v>
       </c>
@@ -16612,7 +17334,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="98" spans="1:9 16382:16382" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9 16382:16382" x14ac:dyDescent="0.3">
       <c r="A98" s="9">
         <v>97</v>
       </c>
@@ -16641,7 +17363,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="99" spans="1:9 16382:16382" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9 16382:16382" x14ac:dyDescent="0.3">
       <c r="A99" s="9">
         <v>98</v>
       </c>
@@ -16670,7 +17392,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="100" spans="1:9 16382:16382" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9 16382:16382" x14ac:dyDescent="0.3">
       <c r="A100" s="9">
         <v>99</v>
       </c>
@@ -16700,7 +17422,7 @@
       </c>
       <c r="XFB100" s="9"/>
     </row>
-    <row r="101" spans="1:9 16382:16382" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9 16382:16382" x14ac:dyDescent="0.3">
       <c r="A101" s="9">
         <v>100</v>
       </c>
@@ -16730,7 +17452,7 @@
       </c>
       <c r="XFB101" s="9"/>
     </row>
-    <row r="102" spans="1:9 16382:16382" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9 16382:16382" x14ac:dyDescent="0.3">
       <c r="A102" s="9">
         <v>101</v>
       </c>
@@ -16759,7 +17481,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="103" spans="1:9 16382:16382" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9 16382:16382" x14ac:dyDescent="0.3">
       <c r="A103" s="9">
         <v>102</v>
       </c>
@@ -16788,7 +17510,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="104" spans="1:9 16382:16382" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9 16382:16382" x14ac:dyDescent="0.3">
       <c r="A104" s="9">
         <v>103</v>
       </c>
@@ -16817,7 +17539,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="105" spans="1:9 16382:16382" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9 16382:16382" x14ac:dyDescent="0.3">
       <c r="A105" s="9">
         <v>104</v>
       </c>
@@ -16847,7 +17569,7 @@
       </c>
       <c r="XFB105" s="9"/>
     </row>
-    <row r="106" spans="1:9 16382:16382" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9 16382:16382" x14ac:dyDescent="0.3">
       <c r="A106" s="9">
         <v>105</v>
       </c>
@@ -16876,7 +17598,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="107" spans="1:9 16382:16382" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9 16382:16382" x14ac:dyDescent="0.3">
       <c r="A107" s="9">
         <v>106</v>
       </c>
@@ -16906,7 +17628,7 @@
       </c>
       <c r="XFB107" s="9"/>
     </row>
-    <row r="108" spans="1:9 16382:16382" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9 16382:16382" x14ac:dyDescent="0.3">
       <c r="A108" s="9">
         <v>107</v>
       </c>
@@ -16935,7 +17657,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="109" spans="1:9 16382:16382" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9 16382:16382" x14ac:dyDescent="0.3">
       <c r="A109" s="9">
         <v>108</v>
       </c>
@@ -16964,7 +17686,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="110" spans="1:9 16382:16382" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9 16382:16382" x14ac:dyDescent="0.3">
       <c r="A110" s="9">
         <v>109</v>
       </c>
@@ -16993,7 +17715,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="111" spans="1:9 16382:16382" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9 16382:16382" x14ac:dyDescent="0.3">
       <c r="A111" s="9">
         <v>110</v>
       </c>
@@ -17022,7 +17744,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="112" spans="1:9 16382:16382" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9 16382:16382" x14ac:dyDescent="0.3">
       <c r="A112" s="9">
         <v>111</v>
       </c>
@@ -17051,7 +17773,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="9">
         <v>112</v>
       </c>
@@ -17080,7 +17802,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="9">
         <v>113</v>
       </c>
@@ -17109,7 +17831,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="9">
         <v>114</v>
       </c>
@@ -17138,7 +17860,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="9">
         <v>115</v>
       </c>
@@ -17167,7 +17889,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="9">
         <v>116</v>
       </c>
@@ -17196,7 +17918,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="9">
         <v>117</v>
       </c>
@@ -17225,7 +17947,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="9">
         <v>118</v>
       </c>
@@ -17254,7 +17976,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="9">
         <v>119</v>
       </c>
@@ -17283,7 +18005,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="9">
         <v>120</v>
       </c>
@@ -17312,7 +18034,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="9">
         <v>121</v>
       </c>
@@ -17341,7 +18063,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="9">
         <v>122</v>
       </c>
@@ -17370,7 +18092,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="9">
         <v>123</v>
       </c>
@@ -17399,7 +18121,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="9">
         <v>124</v>
       </c>
@@ -17428,7 +18150,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="9">
         <v>125</v>
       </c>
@@ -17457,7 +18179,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="9">
         <v>126</v>
       </c>
@@ -17486,7 +18208,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="9">
         <v>127</v>
       </c>
@@ -17515,7 +18237,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="9">
         <v>128</v>
       </c>
@@ -17544,7 +18266,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="9">
         <v>129</v>
       </c>
@@ -17574,7 +18296,7 @@
       </c>
       <c r="J130" s="93"/>
     </row>
-    <row r="131" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="9">
         <v>130</v>
       </c>
@@ -17604,7 +18326,7 @@
       </c>
       <c r="J131" s="93"/>
     </row>
-    <row r="132" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="9">
         <v>131</v>
       </c>
@@ -17634,7 +18356,7 @@
       </c>
       <c r="J132" s="93"/>
     </row>
-    <row r="133" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="9">
         <v>132</v>
       </c>
@@ -17664,7 +18386,7 @@
       </c>
       <c r="J133" s="93"/>
     </row>
-    <row r="134" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="9">
         <v>133</v>
       </c>
@@ -17694,7 +18416,7 @@
       </c>
       <c r="J134" s="93"/>
     </row>
-    <row r="135" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="9">
         <v>134</v>
       </c>
@@ -17724,7 +18446,7 @@
       </c>
       <c r="J135" s="93"/>
     </row>
-    <row r="136" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="9">
         <v>135</v>
       </c>
@@ -17754,7 +18476,7 @@
       </c>
       <c r="J136" s="93"/>
     </row>
-    <row r="137" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" s="9">
         <v>136</v>
       </c>
@@ -17784,7 +18506,7 @@
       </c>
       <c r="J137" s="93"/>
     </row>
-    <row r="138" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" s="9">
         <v>137</v>
       </c>
@@ -17814,7 +18536,7 @@
       </c>
       <c r="J138" s="93"/>
     </row>
-    <row r="139" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="9">
         <v>138</v>
       </c>
@@ -17844,7 +18566,7 @@
       </c>
       <c r="J139" s="93"/>
     </row>
-    <row r="140" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" s="9">
         <v>139</v>
       </c>
@@ -17874,7 +18596,7 @@
       </c>
       <c r="J140" s="93"/>
     </row>
-    <row r="141" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="9">
         <v>140</v>
       </c>
@@ -17904,7 +18626,7 @@
       </c>
       <c r="J141" s="93"/>
     </row>
-    <row r="142" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" s="9">
         <v>141</v>
       </c>
@@ -17934,7 +18656,7 @@
       </c>
       <c r="J142" s="93"/>
     </row>
-    <row r="143" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" s="9">
         <v>142</v>
       </c>
@@ -17964,7 +18686,7 @@
       </c>
       <c r="J143" s="93"/>
     </row>
-    <row r="144" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" s="9">
         <v>143</v>
       </c>
@@ -17994,7 +18716,7 @@
       </c>
       <c r="J144" s="93"/>
     </row>
-    <row r="145" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" s="9">
         <v>144</v>
       </c>
@@ -18024,7 +18746,7 @@
       </c>
       <c r="J145" s="93"/>
     </row>
-    <row r="146" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" s="9">
         <v>145</v>
       </c>
@@ -18054,7 +18776,7 @@
       </c>
       <c r="J146" s="93"/>
     </row>
-    <row r="147" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" s="9">
         <v>146</v>
       </c>
@@ -18084,7 +18806,7 @@
       </c>
       <c r="J147" s="93"/>
     </row>
-    <row r="148" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" s="9">
         <v>147</v>
       </c>
@@ -18114,7 +18836,7 @@
       </c>
       <c r="J148" s="93"/>
     </row>
-    <row r="149" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" s="9">
         <v>148</v>
       </c>
@@ -18144,7 +18866,7 @@
       </c>
       <c r="J149" s="93"/>
     </row>
-    <row r="150" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="9">
         <v>149</v>
       </c>
@@ -18174,7 +18896,7 @@
       </c>
       <c r="J150" s="93"/>
     </row>
-    <row r="151" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" s="9">
         <v>150</v>
       </c>
@@ -18204,7 +18926,7 @@
       </c>
       <c r="J151" s="93"/>
     </row>
-    <row r="152" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" s="9">
         <v>151</v>
       </c>
@@ -18234,7 +18956,7 @@
       </c>
       <c r="J152" s="93"/>
     </row>
-    <row r="153" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" s="9">
         <v>152</v>
       </c>
@@ -18264,7 +18986,7 @@
       </c>
       <c r="J153" s="93"/>
     </row>
-    <row r="154" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" s="9">
         <v>153</v>
       </c>
@@ -18294,7 +19016,7 @@
       </c>
       <c r="J154" s="93"/>
     </row>
-    <row r="155" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" s="9">
         <v>154</v>
       </c>
@@ -18324,7 +19046,7 @@
       </c>
       <c r="J155" s="93"/>
     </row>
-    <row r="156" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" s="9">
         <v>155</v>
       </c>
@@ -18354,7 +19076,7 @@
       </c>
       <c r="J156" s="93"/>
     </row>
-    <row r="157" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" s="9">
         <v>156</v>
       </c>
@@ -18384,7 +19106,7 @@
       </c>
       <c r="J157" s="93"/>
     </row>
-    <row r="158" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" s="9">
         <v>157</v>
       </c>
@@ -18414,7 +19136,7 @@
       </c>
       <c r="J158" s="93"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="9">
         <v>158</v>
       </c>
@@ -18449,7 +19171,7 @@
       <c r="N159" s="91"/>
       <c r="O159" s="91"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="9">
         <v>159</v>
       </c>
@@ -18484,7 +19206,7 @@
       <c r="N160" s="91"/>
       <c r="O160" s="91"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="9">
         <v>160</v>
       </c>
@@ -18519,7 +19241,7 @@
       <c r="N161" s="91"/>
       <c r="O161" s="91"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="9">
         <v>161</v>
       </c>
@@ -18554,7 +19276,7 @@
       <c r="N162" s="91"/>
       <c r="O162" s="91"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="9">
         <v>162</v>
       </c>
@@ -18589,7 +19311,7 @@
       <c r="N163" s="91"/>
       <c r="O163" s="91"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="9">
         <v>163</v>
       </c>
@@ -18624,7 +19346,7 @@
       <c r="N164" s="91"/>
       <c r="O164" s="91"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="9">
         <v>164</v>
       </c>
@@ -18659,7 +19381,7 @@
       <c r="N165" s="91"/>
       <c r="O165" s="91"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="9">
         <v>165</v>
       </c>
@@ -18694,7 +19416,7 @@
       <c r="N166" s="91"/>
       <c r="O166" s="91"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="9">
         <v>166</v>
       </c>
@@ -18729,7 +19451,7 @@
       <c r="N167" s="91"/>
       <c r="O167" s="91"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="9">
         <v>167</v>
       </c>
@@ -18764,7 +19486,7 @@
       <c r="N168" s="91"/>
       <c r="O168" s="91"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="9">
         <v>168</v>
       </c>
@@ -18799,7 +19521,7 @@
       <c r="N169" s="91"/>
       <c r="O169" s="91"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="9">
         <v>169</v>
       </c>
@@ -18834,7 +19556,7 @@
       <c r="N170" s="91"/>
       <c r="O170" s="91"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="9">
         <v>170</v>
       </c>
@@ -18869,7 +19591,7 @@
       <c r="N171" s="91"/>
       <c r="O171" s="91"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="9">
         <v>171</v>
       </c>
@@ -18904,7 +19626,7 @@
       <c r="N172" s="91"/>
       <c r="O172" s="91"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="9">
         <v>172</v>
       </c>
@@ -18939,7 +19661,7 @@
       <c r="N173" s="91"/>
       <c r="O173" s="91"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="9">
         <v>173</v>
       </c>
@@ -18974,7 +19696,7 @@
       <c r="N174" s="91"/>
       <c r="O174" s="91"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="9">
         <v>174</v>
       </c>
@@ -19009,7 +19731,7 @@
       <c r="N175" s="91"/>
       <c r="O175" s="91"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="9">
         <v>175</v>
       </c>
@@ -19044,7 +19766,7 @@
       <c r="N176" s="91"/>
       <c r="O176" s="91"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="9">
         <v>176</v>
       </c>
@@ -19079,7 +19801,7 @@
       <c r="N177" s="91"/>
       <c r="O177" s="91"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="9">
         <v>177</v>
       </c>
@@ -19114,7 +19836,7 @@
       <c r="N178" s="91"/>
       <c r="O178" s="91"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="9">
         <v>178</v>
       </c>
@@ -19149,7 +19871,7 @@
       <c r="N179" s="91"/>
       <c r="O179" s="91"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="9">
         <v>179</v>
       </c>
@@ -19184,7 +19906,7 @@
       <c r="N180" s="91"/>
       <c r="O180" s="91"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="9">
         <v>180</v>
       </c>
@@ -19219,7 +19941,7 @@
       <c r="N181" s="91"/>
       <c r="O181" s="91"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="9">
         <v>181</v>
       </c>
@@ -19254,7 +19976,7 @@
       <c r="N182" s="91"/>
       <c r="O182" s="91"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="9">
         <v>182</v>
       </c>
@@ -19289,7 +20011,7 @@
       <c r="N183" s="91"/>
       <c r="O183" s="91"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="9">
         <v>183</v>
       </c>
@@ -19324,7 +20046,7 @@
       <c r="N184" s="91"/>
       <c r="O184" s="91"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="9">
         <v>184</v>
       </c>
@@ -19359,7 +20081,7 @@
       <c r="N185" s="91"/>
       <c r="O185" s="91"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="9">
         <v>185</v>
       </c>
@@ -19394,7 +20116,7 @@
       <c r="N186" s="91"/>
       <c r="O186" s="91"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="9">
         <v>186</v>
       </c>
@@ -19429,7 +20151,7 @@
       <c r="N187" s="91"/>
       <c r="O187" s="91"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="9">
         <v>187</v>
       </c>
@@ -19464,7 +20186,7 @@
       <c r="N188" s="91"/>
       <c r="O188" s="91"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="9">
         <v>188</v>
       </c>
@@ -19499,7 +20221,7 @@
       <c r="N189" s="91"/>
       <c r="O189" s="91"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="9">
         <v>189</v>
       </c>
@@ -19534,7 +20256,7 @@
       <c r="N190" s="91"/>
       <c r="O190" s="91"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="9">
         <v>190</v>
       </c>
@@ -19569,7 +20291,7 @@
       <c r="N191" s="91"/>
       <c r="O191" s="91"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="9">
         <v>191</v>
       </c>
@@ -19604,7 +20326,7 @@
       <c r="N192" s="91"/>
       <c r="O192" s="91"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="9">
         <v>192</v>
       </c>
@@ -19639,7 +20361,7 @@
       <c r="N193" s="91"/>
       <c r="O193" s="91"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="9">
         <v>193</v>
       </c>
@@ -19674,7 +20396,7 @@
       <c r="N194" s="91"/>
       <c r="O194" s="91"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="9">
         <v>194</v>
       </c>
@@ -19709,7 +20431,7 @@
       <c r="N195" s="91"/>
       <c r="O195" s="91"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="9">
         <v>195</v>
       </c>
@@ -19744,7 +20466,7 @@
       <c r="N196" s="91"/>
       <c r="O196" s="91"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="9">
         <v>196</v>
       </c>
@@ -19779,7 +20501,7 @@
       <c r="N197" s="91"/>
       <c r="O197" s="91"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="9">
         <v>197</v>
       </c>
@@ -19814,7 +20536,7 @@
       <c r="N198" s="91"/>
       <c r="O198" s="91"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="9">
         <v>198</v>
       </c>
@@ -19849,7 +20571,7 @@
       <c r="N199" s="91"/>
       <c r="O199" s="91"/>
     </row>
-    <row r="200" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="9">
         <v>199</v>
       </c>
@@ -19878,7 +20600,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="201" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="9">
         <v>200</v>
       </c>
@@ -19906,6 +20628,246 @@
       <c r="I201" s="43" t="s">
         <v>519</v>
       </c>
+    </row>
+    <row r="202" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A202" s="9">
+        <v>201</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E202" s="85" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G202" s="4">
+        <v>1994</v>
+      </c>
+      <c r="H202" s="35" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I202" s="43" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J202" s="104"/>
+    </row>
+    <row r="203" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A203" s="9">
+        <v>202</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E203" s="85" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="G203" s="4">
+        <v>2009</v>
+      </c>
+      <c r="H203" s="35" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I203" s="43" t="s">
+        <v>732</v>
+      </c>
+      <c r="J203" s="104"/>
+    </row>
+    <row r="204" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A204" s="9">
+        <v>203</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E204" s="85" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G204" s="4">
+        <v>2013</v>
+      </c>
+      <c r="H204" s="35" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I204" s="43" t="s">
+        <v>1214</v>
+      </c>
+      <c r="J204" s="104"/>
+    </row>
+    <row r="205" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A205" s="9">
+        <v>204</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E205" s="85" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G205" s="4">
+        <v>2014</v>
+      </c>
+      <c r="H205" s="35" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I205" s="43" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J205" s="104"/>
+    </row>
+    <row r="206" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A206" s="9">
+        <v>205</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E206" s="85" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G206" s="4">
+        <v>2018</v>
+      </c>
+      <c r="H206" s="35" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I206" s="43" t="s">
+        <v>1216</v>
+      </c>
+      <c r="J206" s="104"/>
+    </row>
+    <row r="207" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A207" s="9">
+        <v>206</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E207" s="85" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G207" s="4">
+        <v>2018</v>
+      </c>
+      <c r="H207" s="35" t="s">
+        <v>1210</v>
+      </c>
+      <c r="I207" s="43" t="s">
+        <v>1217</v>
+      </c>
+      <c r="J207" s="104"/>
+    </row>
+    <row r="208" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A208" s="9">
+        <v>207</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E208" s="85" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G208" s="4">
+        <v>2021</v>
+      </c>
+      <c r="H208" s="35" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I208" s="43" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J208" s="104"/>
+    </row>
+    <row r="209" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A209" s="9">
+        <v>208</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E209" s="85" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G209" s="4">
+        <v>2023</v>
+      </c>
+      <c r="H209" s="35" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I209" s="43" t="s">
+        <v>1219</v>
+      </c>
+      <c r="J209" s="104"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:XFB1"/>
@@ -20110,9 +21072,17 @@
     <hyperlink ref="E16" r:id="rId198" display="19.122"/>
     <hyperlink ref="E200" r:id="rId199" display="19.122"/>
     <hyperlink ref="E201" r:id="rId200" display="https://www.impo.com.uy/bases/leyes/19684-2018"/>
+    <hyperlink ref="E202" r:id="rId201" display="https://www.impo.com.uy/bases/decretos-reglamento/315-1994"/>
+    <hyperlink ref="E203" r:id="rId202" display="https://www.impo.com.uy/bases/leyes/18610-2009"/>
+    <hyperlink ref="E204" r:id="rId203" display="https://www.impo.com.uy/bases/leyes/19140-2013"/>
+    <hyperlink ref="E205" r:id="rId204" display="https://www.impo.com.uy/bases/leyes/19292-2014"/>
+    <hyperlink ref="E206" r:id="rId205" display="https://www.impo.com.uy/bases/decretos/369-2018"/>
+    <hyperlink ref="E207" r:id="rId206" display="https://www.impo.com.uy/bases/decretos/272-2018/1"/>
+    <hyperlink ref="E208" r:id="rId207" display="https://www.impo.com.uy/bases/decretos/34-2021"/>
+    <hyperlink ref="E209" r:id="rId208" display="https://www.impo.com.uy/bases/leyes/20177-2023"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId201"/>
+  <pageSetup orientation="portrait" r:id="rId209"/>
 </worksheet>
 </file>
 
@@ -20122,18 +21092,18 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" style="48" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="48" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="48"/>
+    <col min="3" max="3" width="35.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>578</v>
       </c>
@@ -20142,7 +21112,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>580</v>
       </c>
@@ -20151,7 +21121,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>581</v>
       </c>
@@ -20160,7 +21130,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>0</v>
       </c>
@@ -20169,7 +21139,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
         <v>3</v>
       </c>
@@ -20178,7 +21148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
         <v>572</v>
       </c>
@@ -20187,7 +21157,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
         <v>573</v>
       </c>
@@ -20196,7 +21166,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>576</v>
       </c>
@@ -20205,7 +21175,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
         <v>4</v>
       </c>
@@ -20214,7 +21184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
         <v>582</v>
       </c>
@@ -20223,7 +21193,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
         <v>5</v>
       </c>
@@ -20232,7 +21202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
         <v>577</v>
       </c>
@@ -20241,7 +21211,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
         <v>583</v>
       </c>
@@ -20249,7 +21219,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>581</v>
       </c>
@@ -20257,7 +21227,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
         <v>0</v>
       </c>
@@ -20265,7 +21235,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
         <v>3</v>
       </c>
@@ -20273,7 +21243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
         <v>572</v>
       </c>
@@ -20281,7 +21251,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="49" t="s">
         <v>573</v>
       </c>
@@ -20289,7 +21259,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="49" t="s">
         <v>576</v>
       </c>
@@ -20297,7 +21267,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="49" t="s">
         <v>577</v>
       </c>
@@ -20305,7 +21275,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="49" t="s">
         <v>584</v>
       </c>
@@ -20313,7 +21283,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="54" t="s">
         <v>2</v>
       </c>
@@ -20321,7 +21291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="49" t="s">
         <v>5</v>
       </c>
@@ -20329,7 +21299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="49" t="s">
         <v>0</v>
       </c>
@@ -20337,7 +21307,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="49" t="s">
         <v>572</v>
       </c>
@@ -20345,7 +21315,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="49" t="s">
         <v>573</v>
       </c>
@@ -20353,7 +21323,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="49" t="s">
         <v>576</v>
       </c>
@@ -20361,7 +21331,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="49" t="s">
         <v>577</v>
       </c>
